--- a/Software/DeepLearning/SpeedTests/Plotting/SpeedTest.xlsx
+++ b/Software/DeepLearning/SpeedTests/Plotting/SpeedTest.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\prg_prgeye\Software\DeepLearning\SpeedTests\Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5674919-F291-4C7D-A5DE-F0C6BB886A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7B32F-C7FF-4CC2-9E93-2D5984F5BBD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20617" yWindow="-315" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpeedTest" sheetId="1" r:id="rId1"/>
     <sheet name="VanillaNetDiffSizes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="85">
   <si>
     <t>Speed in (fps)</t>
   </si>
@@ -254,6 +256,36 @@
   </si>
   <si>
     <t>1000MB</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NanoPi</t>
+  </si>
+  <si>
+    <t>BananaPiM2-Zero</t>
+  </si>
+  <si>
+    <t>NanoPi at 0.48</t>
+  </si>
+  <si>
+    <t>i9-NoAVX</t>
+  </si>
+  <si>
+    <t>TitanXp</t>
+  </si>
+  <si>
+    <t>Laptop-i7</t>
+  </si>
+  <si>
+    <t>Laptop-1070</t>
+  </si>
+  <si>
+    <t>MaixBit</t>
   </si>
 </sst>
 </file>
@@ -373,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -487,11 +519,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -563,6 +606,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,9 +929,9 @@
   </sheetPr>
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -894,7 +941,7 @@
     <col min="3" max="3" width="10.46484375" customWidth="1"/>
     <col min="4" max="4" width="8.53125" customWidth="1"/>
     <col min="5" max="5" width="7.53125" customWidth="1"/>
-    <col min="6" max="6" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" customWidth="1"/>
     <col min="7" max="7" width="7.3984375" customWidth="1"/>
     <col min="8" max="8" width="7.73046875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
@@ -3318,52 +3365,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FAD1C9-5909-473E-B04A-BAAA2C429DF0}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="21"/>
-    <col min="3" max="3" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1328125" style="21"/>
-    <col min="10" max="10" width="7.86328125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="12.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="21"/>
+    <col min="2" max="2" width="4.796875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="4.73046875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" customWidth="1"/>
+    <col min="7" max="7" width="6.06640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.265625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="6.53125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="3.59765625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="6.06640625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="5.46484375" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="C1" s="48" t="s">
+    <row r="1" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="C1" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="F1" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="55" t="s">
+      <c r="N1" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="S1" s="55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="47" t="s">
         <v>66</v>
       </c>
@@ -3371,642 +3447,1141 @@
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="50">
         <v>2</v>
       </c>
       <c r="B4" s="50"/>
-      <c r="C4" s="51">
+      <c r="C4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="51">
+        <v>750.19444102735997</v>
+      </c>
+      <c r="E4" s="51">
         <v>796.87164125591005</v>
       </c>
-      <c r="D4" s="52">
+      <c r="F4">
+        <f>G4*1.17</f>
+        <v>39.764087999999994</v>
+      </c>
+      <c r="G4" s="21">
+        <v>33.986399999999996</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="50">
+        <v>59.462753127238997</v>
+      </c>
+      <c r="J4" s="50">
+        <v>1006.92698268</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="50">
+        <v>1075.69701089</v>
+      </c>
+      <c r="M4" s="52">
         <v>124.40170932074101</v>
       </c>
-      <c r="E4" s="51">
-        <v>750.19444102735997</v>
-      </c>
-      <c r="F4" s="50">
-        <v>59.462753127238997</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1006.92698268</v>
-      </c>
-      <c r="H4" s="50">
-        <v>1075.69701089</v>
-      </c>
-      <c r="J4" s="56">
+      <c r="N4" s="21">
+        <v>120.955996433</v>
+      </c>
+      <c r="O4" s="21">
+        <v>162.52368512199999</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="56">
         <v>201503</v>
       </c>
-      <c r="K4" s="56">
+      <c r="S4" s="56">
         <v>119236408</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>3</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="53">
+      <c r="C5" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="51">
+        <v>1450.0644916526101</v>
+      </c>
+      <c r="E5" s="53">
         <v>944.97102947114604</v>
       </c>
-      <c r="D5" s="52">
+      <c r="F5">
+        <f t="shared" ref="F5:F27" si="0">G5*1.17</f>
+        <v>29.781296999999999</v>
+      </c>
+      <c r="G5" s="21">
+        <v>25.4541</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="50">
+        <v>63.6575840525785</v>
+      </c>
+      <c r="J5" s="50">
+        <v>903.831848605</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="50">
+        <v>885.41036450299998</v>
+      </c>
+      <c r="M5" s="52">
         <v>247.31289848524401</v>
       </c>
-      <c r="E5" s="51">
-        <v>1450.0644916526101</v>
-      </c>
-      <c r="F5" s="50">
-        <v>63.6575840525785</v>
-      </c>
-      <c r="G5" s="50">
-        <v>903.831848605</v>
-      </c>
-      <c r="H5" s="50">
-        <v>885.41036450299998</v>
-      </c>
-      <c r="J5" s="56">
+      <c r="N5" s="21">
+        <v>173.08768273699999</v>
+      </c>
+      <c r="O5" s="21">
+        <v>100.42530409699999</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="56">
         <v>647903</v>
       </c>
-      <c r="K5" s="56">
+      <c r="S5" s="56">
         <v>134847289</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>4</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="51">
+      <c r="C6" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="51">
+        <v>824.33078250878998</v>
+      </c>
+      <c r="E6" s="51">
         <v>975.66758236973999</v>
       </c>
-      <c r="D6" s="52">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>20.606039999999997</v>
+      </c>
+      <c r="G6" s="21">
+        <v>17.611999999999998</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="21">
+        <v>149.29026416125799</v>
+      </c>
+      <c r="J6" s="50">
+        <v>711.37886235099995</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="50">
+        <v>609.96080769599996</v>
+      </c>
+      <c r="M6" s="52">
         <v>243.51206208020099</v>
       </c>
-      <c r="E6" s="51">
-        <v>824.33078250878998</v>
-      </c>
-      <c r="F6" s="21">
-        <v>149.29026416125799</v>
-      </c>
-      <c r="G6" s="50">
-        <v>711.37886235099995</v>
-      </c>
-      <c r="H6" s="50">
-        <v>609.96080769599996</v>
-      </c>
-      <c r="J6" s="56">
+      <c r="N6" s="21">
+        <v>64.220591696100001</v>
+      </c>
+      <c r="O6" s="21">
+        <v>66.451093860399993</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="56">
         <v>2485343</v>
       </c>
-      <c r="K6" s="56">
+      <c r="S6" s="56">
         <v>153251130</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>5</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="51">
+      <c r="C7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="51">
+        <v>132.36270438578899</v>
+      </c>
+      <c r="E7" s="51">
         <v>152.72891247893401</v>
       </c>
-      <c r="D7" s="52">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7.7968799999999989</v>
+      </c>
+      <c r="G7" s="21">
+        <v>6.6639999999999997</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="50">
+        <v>21.748112474288099</v>
+      </c>
+      <c r="J7" s="50">
+        <v>259.70777871799999</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="50">
+        <v>392.31551329799998</v>
+      </c>
+      <c r="M7" s="52">
         <v>15.504516821819101</v>
       </c>
-      <c r="E7" s="51">
-        <v>132.36270438578899</v>
-      </c>
-      <c r="F7" s="50">
-        <v>21.748112474288099</v>
-      </c>
-      <c r="G7" s="50">
-        <v>259.70777871799999</v>
-      </c>
-      <c r="H7" s="50">
-        <v>392.31551329799998</v>
-      </c>
-      <c r="J7" s="56">
+      <c r="N7" s="21">
+        <v>27.237521310599998</v>
+      </c>
+      <c r="O7" s="21">
+        <v>25.278454174899998</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="56">
         <v>9858143</v>
       </c>
-      <c r="K7" s="56">
+      <c r="S7" s="56">
         <v>182728251</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="U7" s="59"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>6</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="51">
+      <c r="C8" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="51">
+        <v>61.570666786085603</v>
+      </c>
+      <c r="E8" s="51">
         <v>73.394996383541994</v>
       </c>
-      <c r="D8" s="52">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.3669099999999994</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2.0229999999999997</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="50">
+        <v>4.5906388728773502</v>
+      </c>
+      <c r="J8" s="50">
+        <v>83.320831479199995</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="50">
+        <v>147.166599182</v>
+      </c>
+      <c r="M8" s="52">
         <v>6.8429734128710198</v>
       </c>
-      <c r="E8" s="51">
-        <v>61.570666786085603</v>
-      </c>
-      <c r="F8" s="50">
-        <v>4.5906388728773502</v>
-      </c>
-      <c r="G8" s="50">
-        <v>83.320831479199995</v>
-      </c>
-      <c r="H8" s="50">
-        <v>147.166599182</v>
-      </c>
-      <c r="J8" s="56">
+      <c r="N8" s="21">
+        <v>9.42745891621</v>
+      </c>
+      <c r="O8" s="21">
+        <v>9.8482891094100005</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="56">
         <v>39360863</v>
       </c>
-      <c r="K8" s="56">
+      <c r="S8" s="56">
         <v>300710972</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="U8" s="59"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>7</v>
       </c>
       <c r="B9" s="50"/>
-      <c r="C9" s="51">
+      <c r="C9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="51">
+        <v>19.0789567792465</v>
+      </c>
+      <c r="E9" s="51">
         <v>22.328577329654099</v>
       </c>
-      <c r="D9" s="52">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.59868899999999992</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.51169999999999993</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="50">
+        <v>0.77154549406594097</v>
+      </c>
+      <c r="J9" s="50">
+        <v>22.790724640899999</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="50">
+        <v>16.374788541800001</v>
+      </c>
+      <c r="M9" s="52">
         <v>1.9673233987223</v>
       </c>
-      <c r="E9" s="51">
-        <v>19.0789567792465</v>
-      </c>
-      <c r="F9" s="50">
-        <v>0.77154549406594097</v>
-      </c>
-      <c r="G9" s="50">
-        <v>22.790724640899999</v>
-      </c>
-      <c r="H9" s="50">
-        <v>16.374788541800001</v>
-      </c>
-      <c r="J9" s="56">
+      <c r="N9" s="21">
+        <v>2.8023754029200001</v>
+      </c>
+      <c r="O9" s="21">
+        <v>2.8352555905800001</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="56">
         <v>157348703</v>
       </c>
-      <c r="K9" s="56">
+      <c r="S9" s="56">
         <v>772606013</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="U9" s="59"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="50"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
       <c r="H10" s="50"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="50"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>20</v>
       </c>
       <c r="B12" s="50"/>
-      <c r="C12" s="51">
+      <c r="C12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="51">
+        <v>995.24174920521602</v>
+      </c>
+      <c r="E12" s="51">
         <v>971.29861167086801</v>
       </c>
-      <c r="D12" s="52">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>40.098239999999997</v>
+      </c>
+      <c r="G12" s="21">
+        <v>34.271999999999998</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="50">
+        <v>227.37015118422801</v>
+      </c>
+      <c r="J12" s="50">
+        <v>1005.57991671</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="50">
+        <v>1043.84217573</v>
+      </c>
+      <c r="M12" s="52">
         <v>124.96079747635</v>
       </c>
-      <c r="E12" s="51">
-        <v>995.24174920521602</v>
-      </c>
-      <c r="F12" s="50">
-        <v>227.37015118422801</v>
-      </c>
-      <c r="G12" s="50">
-        <v>1005.57991671</v>
-      </c>
-      <c r="H12" s="50">
-        <v>1043.84217573</v>
-      </c>
-      <c r="J12" s="56">
+      <c r="N12" s="21">
+        <v>187.756428535</v>
+      </c>
+      <c r="O12" s="21">
+        <v>187.641940347</v>
+      </c>
+      <c r="P12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="56">
         <v>201503</v>
       </c>
-      <c r="K12" s="56">
+      <c r="S12" s="56">
         <v>119236408</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>48</v>
       </c>
       <c r="B13" s="50"/>
-      <c r="C13" s="51">
+      <c r="C13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="51">
+        <v>493.12284713392501</v>
+      </c>
+      <c r="E13" s="51">
         <v>513.98699968584401</v>
       </c>
-      <c r="D13" s="52">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>16.289909999999995</v>
+      </c>
+      <c r="G13" s="21">
+        <v>13.922999999999998</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="50">
+        <v>161.463211075712</v>
+      </c>
+      <c r="J13" s="50">
+        <v>585.06858085800002</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="50">
+        <v>710.555748494</v>
+      </c>
+      <c r="M13" s="52">
         <v>71.813329326107805</v>
       </c>
-      <c r="E13" s="51">
-        <v>493.12284713392501</v>
-      </c>
-      <c r="F13" s="50">
-        <v>161.463211075712</v>
-      </c>
-      <c r="G13" s="50">
-        <v>585.06858085800002</v>
-      </c>
-      <c r="H13" s="50">
-        <v>710.555748494</v>
-      </c>
-      <c r="J13" s="56">
+      <c r="N13" s="21">
+        <v>108.338712423</v>
+      </c>
+      <c r="O13" s="21">
+        <v>80.405502681000002</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="56">
         <v>1034643</v>
       </c>
-      <c r="K13" s="56">
+      <c r="S13" s="56">
         <v>523985480</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="50">
         <f>64</f>
         <v>64</v>
       </c>
       <c r="B14" s="50"/>
-      <c r="C14" s="51">
+      <c r="C14" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="51">
+        <v>350.792295092161</v>
+      </c>
+      <c r="E14" s="51">
         <v>404.28444481378301</v>
       </c>
-      <c r="D14" s="52">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>9.8853299999999997</v>
+      </c>
+      <c r="G14" s="21">
+        <v>8.4489999999999998</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="50">
+        <v>134.289277326959</v>
+      </c>
+      <c r="J14" s="50">
+        <v>425.68239736999999</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="50">
+        <v>660.19177857900002</v>
+      </c>
+      <c r="M14" s="52">
         <v>55.694016287715897</v>
       </c>
-      <c r="E14" s="51">
-        <v>350.792295092161</v>
-      </c>
-      <c r="F14" s="50">
-        <v>134.289277326959</v>
-      </c>
-      <c r="G14" s="50">
-        <v>425.68239736999999</v>
-      </c>
-      <c r="H14" s="50">
-        <v>660.19177857900002</v>
-      </c>
-      <c r="J14" s="56">
+      <c r="N14" s="21">
+        <v>49.386400201999997</v>
+      </c>
+      <c r="O14" s="21">
+        <v>50.257746998499996</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="56">
         <v>1799363</v>
       </c>
-      <c r="K14" s="56">
+      <c r="S14" s="56">
         <v>879842056</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="50">
         <v>96</v>
       </c>
       <c r="B15" s="50"/>
-      <c r="C15" s="49">
+      <c r="C15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="49">
+        <v>244.38120000000001</v>
+      </c>
+      <c r="E15" s="49">
         <v>263.02364130000001</v>
       </c>
-      <c r="D15" s="50">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>5.42997</v>
+      </c>
+      <c r="G15" s="21">
+        <v>4.641</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="50">
+        <v>73.897350000000003</v>
+      </c>
+      <c r="J15" s="50">
+        <v>241.82272922799999</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="50">
+        <v>536.79120924100005</v>
+      </c>
+      <c r="M15" s="50">
         <v>40.983234259</v>
       </c>
-      <c r="E15" s="49">
-        <v>244.38120000000001</v>
-      </c>
-      <c r="F15" s="50">
-        <v>73.897350000000003</v>
-      </c>
-      <c r="G15" s="50">
-        <v>241.82272922799999</v>
-      </c>
-      <c r="H15" s="50">
-        <v>536.79120924100005</v>
-      </c>
-      <c r="J15" s="56">
+      <c r="N15" s="21">
+        <v>31.228158997400001</v>
+      </c>
+      <c r="O15" s="21">
+        <v>28.4973029061</v>
+      </c>
+      <c r="P15" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="56">
         <v>3958563</v>
       </c>
-      <c r="K15" s="56">
+      <c r="S15" s="56">
         <v>1863347336</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="50">
         <v>128</v>
       </c>
       <c r="B16" s="50"/>
-      <c r="C16" s="51">
+      <c r="C16" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="51">
+        <v>196.18396680614799</v>
+      </c>
+      <c r="E16" s="51">
         <v>200.00860036999799</v>
       </c>
-      <c r="D16" s="52">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.9238300000000002</v>
+      </c>
+      <c r="G16" s="21">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="50">
+        <v>42.863661433911403</v>
+      </c>
+      <c r="J16" s="50">
+        <v>170.649932197</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="50">
+        <v>308.85072266100002</v>
+      </c>
+      <c r="M16" s="52">
         <v>33.3614951755725</v>
       </c>
-      <c r="E16" s="51">
-        <v>196.18396680614799</v>
-      </c>
-      <c r="F16" s="50">
-        <v>42.863661433911403</v>
-      </c>
-      <c r="G16" s="50">
-        <v>170.649932197</v>
-      </c>
-      <c r="H16" s="50">
-        <v>308.85072266100002</v>
-      </c>
-      <c r="J16" s="56">
+      <c r="N16" s="21">
+        <v>18.169205333800001</v>
+      </c>
+      <c r="O16" s="21">
+        <v>19.126485489899999</v>
+      </c>
+      <c r="P16" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="56">
         <v>6957443</v>
       </c>
-      <c r="K16" s="56">
+      <c r="S16" s="56">
         <v>3209242120</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>256</v>
       </c>
       <c r="B17" s="50"/>
-      <c r="C17" s="51">
+      <c r="C17" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="51">
+        <v>15.9992989107221</v>
+      </c>
+      <c r="E17" s="51">
         <v>18.535407965058599</v>
       </c>
-      <c r="D17" s="52">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.8353799999999999</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="50">
+        <v>5.1946798642099603</v>
+      </c>
+      <c r="J17" s="50">
+        <v>53.113459043799999</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="50">
+        <v>176.20771678400001</v>
+      </c>
+      <c r="M17" s="52">
         <v>1.6709264699999999</v>
       </c>
-      <c r="E17" s="51">
-        <v>15.9992989107221</v>
-      </c>
-      <c r="F17" s="50">
-        <v>5.1946798642099603</v>
-      </c>
-      <c r="G17" s="50">
-        <v>53.113459043799999</v>
-      </c>
-      <c r="H17" s="50">
-        <v>176.20771678400001</v>
-      </c>
-      <c r="J17" s="56">
+      <c r="N17" s="21">
+        <v>6.1273792146100003</v>
+      </c>
+      <c r="O17" s="21">
+        <v>6.7540268006300002</v>
+      </c>
+      <c r="P17" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="56">
         <v>27349763</v>
       </c>
-      <c r="K17" s="56">
+      <c r="S17" s="56">
         <v>12216716296</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="50">
         <v>512</v>
       </c>
       <c r="B18" s="50"/>
-      <c r="C18" s="49">
+      <c r="C18" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="49">
+        <v>3.9329182650000001</v>
+      </c>
+      <c r="E18" s="49">
         <v>4.5982374100000003</v>
       </c>
-      <c r="D18" s="50">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.23669099999999998</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="50">
+        <v>0.86971222526599601</v>
+      </c>
+      <c r="J18" s="50">
+        <v>16.404166872600001</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="50">
+        <v>30.686368609100001</v>
+      </c>
+      <c r="M18" s="50">
         <v>0.49802343999999998</v>
       </c>
-      <c r="E18" s="49">
-        <v>3.9329182650000001</v>
-      </c>
-      <c r="F18" s="50">
-        <v>0.86971222526599601</v>
-      </c>
-      <c r="G18" s="50">
-        <v>16.404166872600001</v>
-      </c>
-      <c r="H18" s="50">
-        <v>30.686368609100001</v>
-      </c>
-      <c r="J18" s="56">
+      <c r="N18" s="21">
+        <v>1.8866532738399999</v>
+      </c>
+      <c r="O18" s="21">
+        <v>1.87702934333</v>
+      </c>
+      <c r="P18" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="56">
         <v>108439043</v>
       </c>
-      <c r="K18" s="56">
+      <c r="S18" s="56">
         <v>47626360840</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+    </row>
+    <row r="21" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="47" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="50"/>
-      <c r="C22" s="51">
+      <c r="C22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="51">
+        <v>769.750646971842</v>
+      </c>
+      <c r="E22" s="51">
         <v>846.27946999558196</v>
       </c>
-      <c r="D22" s="52">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>39.959009999999999</v>
+      </c>
+      <c r="G22" s="21">
+        <v>34.152999999999999</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="50">
+        <v>254.13140000000001</v>
+      </c>
+      <c r="J22" s="50">
+        <v>1030.0480114</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="50">
+        <v>1021.42897151</v>
+      </c>
+      <c r="M22" s="52">
         <v>125.867272748819</v>
       </c>
-      <c r="E22" s="51">
-        <v>769.750646971842</v>
-      </c>
-      <c r="F22" s="50">
-        <v>254.13140000000001</v>
-      </c>
-      <c r="G22" s="50">
-        <v>1030.0480114</v>
-      </c>
-      <c r="H22" s="50">
-        <v>1021.42897151</v>
-      </c>
-      <c r="J22" s="56">
+      <c r="N22" s="21">
+        <v>126.773085069</v>
+      </c>
+      <c r="O22" s="21">
+        <v>173.44032869399999</v>
+      </c>
+      <c r="P22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="56">
         <v>201503</v>
       </c>
-      <c r="K22" s="56">
+      <c r="S22" s="56">
         <v>119236408</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="50"/>
-      <c r="C23" s="51">
+      <c r="C23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="51">
+        <v>878.05409165024696</v>
+      </c>
+      <c r="E23" s="51">
         <v>646.18371973782303</v>
       </c>
-      <c r="D23" s="52">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>17.403749999999999</v>
+      </c>
+      <c r="G23" s="21">
+        <v>14.875</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="50">
+        <v>138.908662417133</v>
+      </c>
+      <c r="J23" s="50">
+        <v>563.99311531800004</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="50">
+        <v>648.15935466899998</v>
+      </c>
+      <c r="M23" s="52">
         <v>131.67719399741301</v>
       </c>
-      <c r="E23" s="51">
-        <v>878.05409165024696</v>
-      </c>
-      <c r="F23" s="50">
-        <v>138.908662417133</v>
-      </c>
-      <c r="G23" s="50">
-        <v>563.99311531800004</v>
-      </c>
-      <c r="H23" s="50">
-        <v>648.15935466899998</v>
-      </c>
-      <c r="J23" s="56">
+      <c r="N23" s="21">
+        <v>80.037645880599996</v>
+      </c>
+      <c r="O23" s="59">
+        <v>105</v>
+      </c>
+      <c r="P23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="56">
         <v>2065935</v>
       </c>
-      <c r="K23" s="56">
+      <c r="S23" s="56">
         <v>367207929</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="50"/>
-      <c r="C24" s="51">
+      <c r="C24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="51">
+        <v>155.25122520491001</v>
+      </c>
+      <c r="E24" s="51">
         <v>195.075684976068</v>
       </c>
-      <c r="D24" s="52">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>8.4373379999999987</v>
+      </c>
+      <c r="G24" s="21">
+        <v>7.2113999999999994</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="50">
+        <v>45.697222171983803</v>
+      </c>
+      <c r="J24" s="21">
+        <v>271.89073000000002</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="50">
+        <v>379.06525703900002</v>
+      </c>
+      <c r="M24" s="52">
         <v>19.758150360792499</v>
       </c>
-      <c r="E24" s="51">
-        <v>155.25122520491001</v>
-      </c>
-      <c r="F24" s="50">
-        <v>45.697222171983803</v>
-      </c>
-      <c r="G24" s="21">
-        <v>271.89073000000002</v>
-      </c>
-      <c r="H24" s="50">
-        <v>379.06525703900002</v>
-      </c>
-      <c r="J24" s="56">
+      <c r="N24" s="21">
+        <v>21.202549338400001</v>
+      </c>
+      <c r="O24" s="21">
+        <v>33.3085747481</v>
+      </c>
+      <c r="P24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="56">
         <v>8942429</v>
       </c>
-      <c r="K24" s="56">
+      <c r="S24" s="56">
         <v>470519202</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="54" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="50"/>
-      <c r="C25" s="51">
+      <c r="C25" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="51">
+        <v>23.148567180075201</v>
+      </c>
+      <c r="E25" s="51">
         <v>27.0076499506152</v>
       </c>
-      <c r="D25" s="52">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3.8288249999999997</v>
+      </c>
+      <c r="G25" s="21">
+        <v>3.2725</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="50">
+        <v>12.9155800151643</v>
+      </c>
+      <c r="J25" s="50">
+        <v>144.25828960699999</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="50">
+        <v>201.97452627999999</v>
+      </c>
+      <c r="M25" s="52">
         <v>2.4128371914098201</v>
       </c>
-      <c r="E25" s="51">
-        <v>23.148567180075201</v>
-      </c>
-      <c r="F25" s="50">
-        <v>12.9155800151643</v>
-      </c>
-      <c r="G25" s="50">
-        <v>144.25828960699999</v>
-      </c>
-      <c r="H25" s="50">
-        <v>201.97452627999999</v>
-      </c>
-      <c r="J25" s="56">
+      <c r="N25" s="21">
+        <v>13.297607190700001</v>
+      </c>
+      <c r="O25" s="21">
+        <v>15.7636066352</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="56">
         <v>22264023</v>
       </c>
-      <c r="K25" s="56">
+      <c r="S25" s="56">
         <v>1089023770</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="50"/>
-      <c r="C26" s="51">
+      <c r="C26" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="51">
+        <v>9.8279204832777101</v>
+      </c>
+      <c r="E26" s="51">
         <v>11.436080980149899</v>
       </c>
-      <c r="D26" s="52">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2.0884499999999999</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="50">
+        <v>4.3589747320422498</v>
+      </c>
+      <c r="J26" s="50">
+        <v>80.465538248399994</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="50">
+        <v>133.721823293</v>
+      </c>
+      <c r="M26" s="52">
         <v>0.98892617772508495</v>
       </c>
-      <c r="E26" s="51">
-        <v>9.8279204832777101</v>
-      </c>
-      <c r="F26" s="50">
-        <v>4.3589747320422498</v>
-      </c>
-      <c r="G26" s="50">
-        <v>80.465538248399994</v>
-      </c>
-      <c r="H26" s="50">
-        <v>133.721823293</v>
-      </c>
-      <c r="J26" s="56">
+      <c r="N26" s="21">
+        <v>7.9039898782</v>
+      </c>
+      <c r="O26" s="21">
+        <v>9.0130282540500009</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="56">
         <v>43434345</v>
       </c>
-      <c r="K26" s="56">
+      <c r="S26" s="56">
         <v>694123091</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="50"/>
-      <c r="C27" s="51">
+      <c r="C27" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="51">
+        <v>16.473071560522101</v>
+      </c>
+      <c r="E27" s="51">
         <v>19.125563734355701</v>
       </c>
-      <c r="D27" s="52">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.0581479999999999</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="50">
+        <v>8.2135309999999997</v>
+      </c>
+      <c r="J27" s="50">
+        <v>43.000490871300002</v>
+      </c>
+      <c r="K27" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="50">
+        <v>32.8239366038</v>
+      </c>
+      <c r="M27" s="52">
         <v>1.6849858198501499</v>
       </c>
-      <c r="E27" s="51">
-        <v>16.473071560522101</v>
-      </c>
-      <c r="F27" s="50">
-        <v>8.2135309999999997</v>
-      </c>
-      <c r="G27" s="50">
-        <v>43.000490871300002</v>
-      </c>
-      <c r="H27" s="50">
-        <v>32.8239366038</v>
-      </c>
-      <c r="J27" s="56">
+      <c r="N27" s="60">
+        <v>5.6340000000000003</v>
+      </c>
+      <c r="O27" s="21">
+        <v>6.2</v>
+      </c>
+      <c r="P27" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" s="56">
         <v>88540293</v>
       </c>
-      <c r="K27" s="56">
+      <c r="S27" s="56">
         <v>640317252</v>
       </c>
     </row>
